--- a/results/20newsgroupsdata.xlsx
+++ b/results/20newsgroupsdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="15315" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="15315" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -655,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="A10:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1178,8 +1178,8 @@
         <v>1.6951765896984965</v>
       </c>
       <c r="E13">
-        <f>AVERAGE(B3:U7)</f>
-        <v>-4.1338697397999997</v>
+        <f>AVERAGE(E3:X7)</f>
+        <v>-4.0530977144705886</v>
       </c>
       <c r="F13" t="s">
         <v>46</v>
@@ -1213,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
